--- a/DVConEU2016_Schedule-Day-2.xlsx
+++ b/DVConEU2016_Schedule-Day-2.xlsx
@@ -5,15 +5,14 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthias/OneDrive/GitHub/DVCON/2016/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthias/GitHub/New/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="820" yWindow="460" windowWidth="24780" windowHeight="15540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="820" yWindow="460" windowWidth="24780" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule Day 2" sheetId="3" r:id="rId1"/>
-    <sheet name="Original" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t xml:space="preserve">FORUM 4 </t>
   </si>
@@ -51,9 +50,6 @@
     <t xml:space="preserve">OPENING SESSION/KEYNOTE- FORUM 6-7 </t>
   </si>
   <si>
-    <t xml:space="preserve">15 Minute Break to separate meeting room 6 and 7 </t>
-  </si>
-  <si>
     <t xml:space="preserve">TECHNICAL SESSION </t>
   </si>
   <si>
@@ -61,67 +57,16 @@
   </si>
   <si>
     <t>Coffee Break in Foyer</t>
-  </si>
-  <si>
-    <t>8:30am - 9:45am</t>
-  </si>
-  <si>
-    <t>11:30am - 12:30pm</t>
-  </si>
-  <si>
-    <t>8:30am - 11:00am</t>
-  </si>
-  <si>
-    <t>7:30am - 7:00pm</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">POSTER SESSION IN FOYER </t>
-    </r>
   </si>
   <si>
     <t>EXHIBIT HALL
 12:30-6:00pm</t>
   </si>
   <si>
-    <t>LUNCHEON - IN EXHIBIT HALL</t>
-  </si>
-  <si>
-    <t>12:30pm - 1:30pm</t>
-  </si>
-  <si>
     <t>TECHNICAL SESSION</t>
   </si>
   <si>
-    <t>1:30pm - 3:00pm</t>
-  </si>
-  <si>
     <t xml:space="preserve">Coffee Break in Exhibit Hall </t>
-  </si>
-  <si>
-    <t>3:00pm - 3:30pm</t>
-  </si>
-  <si>
-    <t>3:30pm - 5:00pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Best Paper/Poster Presentation on Exhibit Floor </t>
-  </si>
-  <si>
-    <t>5:15pm - 6:00pm</t>
-  </si>
-  <si>
-    <t>10:00am - 11:30am</t>
   </si>
   <si>
     <t>PANEL Discussion</t>
@@ -211,16 +156,9 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -259,7 +197,7 @@
       <name val="Calibri (Textkörper)"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -269,12 +207,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDDD0FE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,19 +247,10 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -460,142 +383,116 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="18" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="18" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="18" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="18" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="18" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="18" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="18" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="18" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="18" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -883,300 +780,294 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I26"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.83203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="18.83203125" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="1.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="18.83203125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="20">
+      <c r="B3" s="16">
         <v>0.3125</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="18">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="16">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C4" s="18">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D4" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="34" t="s">
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="38"/>
+    </row>
+    <row r="5" spans="2:9" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="17">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C5" s="19">
+        <v>0.40625</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="41"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="38"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="16">
+        <v>0.40625</v>
+      </c>
+      <c r="C6" s="18">
+        <v>0.4375</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="25"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="38"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="13"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="38"/>
+    </row>
+    <row r="8" spans="2:9" s="8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="17">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="C8" s="19">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="38"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B9" s="16">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="C9" s="18">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="38"/>
+    </row>
+    <row r="10" spans="2:9" s="8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="17">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="C10" s="19">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="38"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="16">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="C11" s="18">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="38"/>
+    </row>
+    <row r="12" spans="2:9" s="8" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="32">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="C12" s="34">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="20">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="C4" s="22">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="34"/>
-    </row>
-    <row r="5" spans="2:9" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="21">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="C5" s="23">
-        <v>0.40625</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="37"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="34"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="20">
-        <v>0.40625</v>
-      </c>
-      <c r="C6" s="22">
-        <v>0.4375</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="31"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="34"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="17"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="34"/>
-    </row>
-    <row r="8" spans="2:9" s="12" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="21">
-        <v>0.44791666666666669</v>
-      </c>
-      <c r="C8" s="23">
-        <v>0.51041666666666663</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="34"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="20">
-        <v>0.51041666666666663</v>
-      </c>
-      <c r="C9" s="22">
-        <v>0.55208333333333337</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="34"/>
-    </row>
-    <row r="10" spans="2:9" s="12" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="21">
-        <v>0.55208333333333337</v>
-      </c>
-      <c r="C10" s="23">
-        <v>0.61458333333333337</v>
-      </c>
-      <c r="D10" s="15" t="s">
+      <c r="G12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="34"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="20">
-        <v>0.61458333333333337</v>
-      </c>
-      <c r="C11" s="22">
-        <v>0.63541666666666663</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="34"/>
-    </row>
-    <row r="12" spans="2:9" s="12" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="26">
-        <v>0.63541666666666663</v>
-      </c>
-      <c r="C12" s="28">
+      <c r="I12" s="38"/>
+    </row>
+    <row r="13" spans="2:9" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="33"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="31"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="38"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="16">
         <v>0.69791666666666663</v>
       </c>
-      <c r="D12" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="34"/>
-    </row>
-    <row r="13" spans="2:9" s="12" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="27"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="45"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="34"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="20">
-        <v>0.69791666666666663</v>
-      </c>
-      <c r="C14" s="22">
+      <c r="C14" s="18">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="31"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="34"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="25"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="38"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="20">
+      <c r="B15" s="16">
         <v>0.72916666666666663</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="18">
         <v>0.75</v>
       </c>
-      <c r="D15" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="34"/>
+      <c r="D15" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="38"/>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D18" s="9"/>
+      <c r="D18" s="6"/>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D20" s="9"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="51"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="21"/>
     </row>
     <row r="21" spans="4:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D22" s="9"/>
+      <c r="D22" s="6"/>
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D24" s="9"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
     </row>
     <row r="26" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D26" s="9"/>
+      <c r="D26" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="F13:G13"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="F14:G14"/>
@@ -1187,251 +1078,12 @@
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="D9:H9"/>
     <mergeCell ref="D11:H11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H24"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="1.83203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" style="2" customWidth="1"/>
-    <col min="3" max="8" width="18.83203125" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="47" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="47"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="48"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="47"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="1"/>
-      <c r="C6" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="47"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="47"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="47"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="47"/>
-    </row>
-    <row r="10" spans="2:8" s="12" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="47"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="47"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="47"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="47"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C16" s="9"/>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C18" s="9"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="3:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C20" s="9"/>
-    </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C22" s="9"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C24" s="9"/>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H3:H13"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="F13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DVConEU2016_Schedule-Day-2.xlsx
+++ b/DVConEU2016_Schedule-Day-2.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t xml:space="preserve">FORUM 4 </t>
   </si>
@@ -44,9 +44,6 @@
     <t xml:space="preserve">FORUM 8 </t>
   </si>
   <si>
-    <t xml:space="preserve">GROBER SAAL- FORUM 1-3 </t>
-  </si>
-  <si>
     <t xml:space="preserve">OPENING SESSION/KEYNOTE- FORUM 6-7 </t>
   </si>
   <si>
@@ -57,10 +54,6 @@
   </si>
   <si>
     <t>Coffee Break in Foyer</t>
-  </si>
-  <si>
-    <t>EXHIBIT HALL
-12:30-6:00pm</t>
   </si>
   <si>
     <t>TECHNICAL SESSION</t>
@@ -197,7 +190,7 @@
       <name val="Calibri (Textkörper)"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,12 +212,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF979B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -428,16 +415,49 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -446,10 +466,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -457,42 +477,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -778,10 +762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I26"/>
+  <dimension ref="B2:H26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -789,11 +773,11 @@
     <col min="1" max="1" width="1.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="18.83203125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="1"/>
+    <col min="4" max="8" width="18.83203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
@@ -809,45 +793,38 @@
       <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="16">
         <v>0.3125</v>
       </c>
       <c r="C3" s="18">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D3" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="38" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="30"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" s="16">
         <v>0.35416666666666669</v>
       </c>
       <c r="C4" s="18">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D4" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="38"/>
-    </row>
-    <row r="5" spans="2:9" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D4" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="32"/>
+    </row>
+    <row r="5" spans="2:8" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="17">
         <v>0.35416666666666669</v>
       </c>
@@ -856,14 +833,13 @@
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="10"/>
-      <c r="F5" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="41"/>
+      <c r="F5" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="33"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="38"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="16">
         <v>0.40625</v>
       </c>
@@ -872,26 +848,24 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="25"/>
+      <c r="F6" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="28"/>
       <c r="H6" s="7"/>
-      <c r="I6" s="38"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="13"/>
       <c r="C7" s="15"/>
-      <c r="D7" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="38"/>
-    </row>
-    <row r="8" spans="2:9" s="8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D7" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="35"/>
+    </row>
+    <row r="8" spans="2:8" s="8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="17">
         <v>0.44791666666666669</v>
       </c>
@@ -899,39 +873,37 @@
         <v>0.51041666666666663</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="38"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="16">
         <v>0.51041666666666663</v>
       </c>
       <c r="C9" s="18">
         <v>0.55208333333333337</v>
       </c>
-      <c r="D9" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="38"/>
-    </row>
-    <row r="10" spans="2:9" s="8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+    </row>
+    <row r="10" spans="2:8" s="8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="17">
         <v>0.55208333333333337</v>
       </c>
@@ -939,75 +911,71 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="38"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="16">
         <v>0.61458333333333337</v>
       </c>
       <c r="C11" s="18">
         <v>0.63541666666666663</v>
       </c>
-      <c r="D11" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="38"/>
-    </row>
-    <row r="12" spans="2:9" s="8" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="32">
+      <c r="D11" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+    </row>
+    <row r="12" spans="2:8" s="8" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="23">
         <v>0.63541666666666663</v>
       </c>
-      <c r="C12" s="34">
+      <c r="C12" s="25">
         <v>0.69791666666666663</v>
       </c>
-      <c r="D12" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>7</v>
+      <c r="D12" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>6</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="38"/>
-    </row>
-    <row r="13" spans="2:9" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="33"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="31"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="38"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="2:8" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="24"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="42"/>
+      <c r="H13" s="40"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="16">
         <v>0.69791666666666663</v>
       </c>
@@ -1016,63 +984,59 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="25"/>
+      <c r="F14" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="28"/>
       <c r="H14" s="7"/>
-      <c r="I14" s="38"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" s="16">
         <v>0.72916666666666663</v>
       </c>
       <c r="C15" s="18">
         <v>0.75</v>
       </c>
-      <c r="D15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="38"/>
-    </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D15" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+    </row>
+    <row r="18" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D18" s="6"/>
     </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D20" s="6"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="21"/>
     </row>
-    <row r="21" spans="4:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-    </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D22" s="6"/>
     </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D24" s="6"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="26" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D26" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="15">
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="D3:H3"/>
-    <mergeCell ref="I3:I15"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="D7:H7"/>
